--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2114815.924456219</v>
+        <v>-2117731.521548547</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.59202847703558</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>28.71125398700465</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>8.777525990011616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>144.577399146572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>52.76623367726329</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>155.242980066263</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>57.68157701938551</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>14.82811972447759</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>71.97315171376613</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7896945522224157</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="W10" t="n">
-        <v>118.3167770327492</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>380.3933256949194</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>347.7039243400708</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>147.8185411830639</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>49.45723989698074</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856548</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012159</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>193.9313104494286</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>168.999744800192</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>215.3025979624047</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>150.672680124696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>59.44001103519416</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2722,7 +2722,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002292</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,10 +2950,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065884</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1579.049931616194</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>879.7184058617563</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>493.9301532635121</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>82.94424847390451</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1658.435818966735</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>719.2627963377356</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>1663.420136195577</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1294.457619255165</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>936.1919206484147</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>936.1919206484147</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>525.2060158588072</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>107.242207756994</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2033.097625012799</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>1659.631866751719</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1269.492534775907</v>
+        <v>2050.019976259699</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6911546495019</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>380.6911546495019</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>669.8647649949339</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>380.6911546495019</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V7" t="n">
-        <v>380.6911546495019</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W7" t="n">
-        <v>380.6911546495019</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X7" t="n">
-        <v>380.6911546495019</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6911546495019</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1406.118858921978</v>
+        <v>1822.041796525165</v>
       </c>
       <c r="C8" t="n">
-        <v>1037.156341981567</v>
+        <v>1822.041796525165</v>
       </c>
       <c r="D8" t="n">
-        <v>1037.156341981567</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1037.156341981567</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>626.1704371919591</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>208.206629090146</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X8" t="n">
-        <v>1796.25819089779</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1406.118858921978</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>608.6170882137585</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.229508727735</v>
       </c>
       <c r="C11" t="n">
-        <v>1947.7144217092</v>
+        <v>1949.266991787324</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.44872310245</v>
+        <v>1591.001293180573</v>
       </c>
       <c r="E11" t="n">
         <v>1205.213040582329</v>
@@ -5042,7 +5042,7 @@
         <v>373.3125385470848</v>
       </c>
       <c r="K11" t="n">
-        <v>892.189873607444</v>
+        <v>842.9429223347665</v>
       </c>
       <c r="L11" t="n">
         <v>1511.709654113219</v>
@@ -5078,13 +5078,13 @@
         <v>3819.650524220739</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.434439028749</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.416110689545</v>
+        <v>3094.968680767669</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.829348791857</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>1062.705720206928</v>
+        <v>1654.724074459055</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.759402180614</v>
+        <v>1903.635877180809</v>
       </c>
       <c r="O12" t="n">
         <v>1903.635877180809</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.3837369456758</v>
+        <v>784.4811998809253</v>
       </c>
       <c r="C13" t="n">
-        <v>633.4475540177689</v>
+        <v>615.5450169530184</v>
       </c>
       <c r="D13" t="n">
-        <v>633.4475540177689</v>
+        <v>615.5450169530184</v>
       </c>
       <c r="E13" t="n">
-        <v>485.5344604353758</v>
+        <v>467.6319233706253</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5344604353758</v>
+        <v>467.6319233706253</v>
       </c>
       <c r="G13" t="n">
         <v>318.3202656099546</v>
@@ -5221,28 +5221,28 @@
         <v>2429.380814232059</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.380814232059</v>
+        <v>2361.52146919056</v>
       </c>
       <c r="S13" t="n">
-        <v>2246.210623970989</v>
+        <v>2178.35127892949</v>
       </c>
       <c r="T13" t="n">
-        <v>2026.531841685371</v>
+        <v>1958.672496643873</v>
       </c>
       <c r="U13" t="n">
-        <v>1737.455628000098</v>
+        <v>1669.596282958599</v>
       </c>
       <c r="V13" t="n">
-        <v>1482.771139794211</v>
+        <v>1414.911794752712</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.814331817463</v>
+        <v>1414.911794752712</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.824780919446</v>
+        <v>1186.922243854695</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.0322017759155</v>
+        <v>966.129664711165</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,28 +5264,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192612</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111674</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075772</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332384</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756268</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468478</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962607</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951536</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951536</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685892</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1492.495641279528</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1203.078471242567</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5601,19 +5601,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.2677182139842</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>530.3315352860773</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1873.799971328619</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1619.115483122732</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W19" t="n">
-        <v>1329.698313085771</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1101.708762187754</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>880.9161830442239</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5838,16 +5838,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,70 +5884,70 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1653.302830625878</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
         <v>1501.108204237296</v>
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F25" t="n">
-        <v>198.027470314254</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2319.876964645598</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="26">
@@ -6233,10 +6233,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656818</v>
@@ -6844,19 +6844,19 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6865,22 +6865,22 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547835</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
         <v>2129.438138565707</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,25 +7333,25 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380719</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311314</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,19 +7360,19 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.221377756499</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8459,7 +8459,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>49.74439522492668</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>49.74439522492673</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.925301186867599e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-4.697864023994398e-14</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>304.141813186445</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>385.0729160337903</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>63.74626800418662</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>37.02824866746593</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>243.3601173338164</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.53704437734234</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.537044377342227</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>17.723511694103</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>237.0657584396102</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>58.20633287439944</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>117.1847295890521</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>71.22040037418626</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>40.30478226780065</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>75.03697526434118</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>121.5862749664504</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48735.31458994616</v>
+        <v>48735.31458994615</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982121</v>
       </c>
       <c r="E2" t="n">
-        <v>60492.0471289592</v>
+        <v>60492.04712895919</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675041</v>
       </c>
       <c r="H2" t="n">
         <v>60535.99497675045</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675047</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982118</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="N2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="O2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="P2" t="n">
         <v>61578.13273982123</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982124</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936391.4095185974</v>
+        <v>936391.4095185975</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.637614951788</v>
+        <v>7852.63761495089</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,19 +26421,19 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
         <v>5759.93888671817</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670372</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670461</v>
+        <v>5067.592601670444</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670416</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
@@ -26442,7 +26442,7 @@
         <v>13058.45186476389</v>
       </c>
       <c r="K4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476388</v>
       </c>
       <c r="L4" t="n">
         <v>13058.4518647639</v>
@@ -26451,13 +26451,13 @@
         <v>13058.45186476391</v>
       </c>
       <c r="N4" t="n">
-        <v>13058.45186476393</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476392</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727419.3785162971</v>
+        <v>-727847.4724546261</v>
       </c>
       <c r="C6" t="n">
         <v>-222345.4512513198</v>
       </c>
       <c r="D6" t="n">
-        <v>-222345.4512513197</v>
+        <v>-222345.4512513198</v>
       </c>
       <c r="E6" t="n">
-        <v>-982565.2600548322</v>
+        <v>-982601.4629085277</v>
       </c>
       <c r="F6" t="n">
-        <v>-53506.76506377885</v>
+        <v>-53541.5029892137</v>
       </c>
       <c r="G6" t="n">
-        <v>-45654.12744882625</v>
+        <v>-45688.86537426284</v>
       </c>
       <c r="H6" t="n">
-        <v>-45654.1274488271</v>
+        <v>-45688.86537426277</v>
       </c>
       <c r="I6" t="n">
-        <v>-45654.12744882709</v>
+        <v>-45688.86537426278</v>
       </c>
       <c r="J6" t="n">
         <v>-250495.3721650828</v>
       </c>
       <c r="K6" t="n">
-        <v>-54644.43497885811</v>
+        <v>-54644.4349788581</v>
       </c>
       <c r="L6" t="n">
-        <v>-54644.43497885804</v>
+        <v>-54644.43497885806</v>
       </c>
       <c r="M6" t="n">
         <v>-178852.9456869166</v>
       </c>
       <c r="N6" t="n">
-        <v>-54644.4349788581</v>
+        <v>-54644.43497885805</v>
       </c>
       <c r="O6" t="n">
-        <v>-74072.15297248978</v>
+        <v>-74072.1529724898</v>
       </c>
       <c r="P6" t="n">
-        <v>-54644.43497885805</v>
+        <v>-54644.43497885814</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26938,16 +26938,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.297384499299</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625289284</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>88.18504824067463</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>290.724009802669</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>74.0072542055228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>271.1565390870938</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>193.99798865115</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27822,13 +27822,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>167.3535284386988</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>271.4537545175002</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>282.7098899069168</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.1330782121347</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="W10" t="n">
-        <v>168.2062213038419</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31847,13 +31847,13 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>428.3656332688754</v>
+        <v>382.7677754386397</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982453</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348438</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135345</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663287</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162568</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175683</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159433</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460035</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236514</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669227</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078749</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659452</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521103</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473078</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532598</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437249</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214702</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485293</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742443</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121572</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869281</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106792</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417317</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.9903120353277</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496635</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N24" t="n">
-        <v>510.8679233250724</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N27" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904295</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N36" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,7 +33983,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>595.327537312171</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N42" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>524.1185202629891</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>675.5219512913658</v>
       </c>
       <c r="M11" t="n">
         <v>728.287436302058</v>
@@ -35495,13 +35495,13 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>297.0239211855421</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839151</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317426</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396376</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462697</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902955</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193525</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243168</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924732</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902407</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496679</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674336</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312415</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992804</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>427.90217120714</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625078</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899078</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663302</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N24" t="n">
-        <v>379.5262112417391</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N27" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
         <v>288.6172359016746</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N36" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,7 +37631,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9858252288377</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N42" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
